--- a/Report_2_Table3_Estimated_Total_Average_Savings_by_Risk.xlsx
+++ b/Report_2_Table3_Estimated_Total_Average_Savings_by_Risk.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="12">
   <si>
     <t>coveragetier</t>
   </si>
@@ -27,7 +27,19 @@
     <t>xt_totpredrisk_l1</t>
   </si>
   <si>
+    <t>oop_IYC_model</t>
+  </si>
+  <si>
+    <t>premium_HD</t>
+  </si>
+  <si>
     <t>IYC_Total_Cost</t>
+  </si>
+  <si>
+    <t>oop_HDHP_model</t>
+  </si>
+  <si>
+    <t>premium_HDHP</t>
   </si>
   <si>
     <t>HD_Total_Cost</t>
@@ -82,7 +94,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -107,6 +119,18 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -116,15 +140,27 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
+        <v>413.48727416992188</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1584</v>
+      </c>
+      <c r="E2" s="1">
         <v>1997.4873046875</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
+        <v>667.7208251953125</v>
+      </c>
+      <c r="G2" s="1">
+        <v>588</v>
+      </c>
+      <c r="H2" s="1">
         <v>1255.7208251953125</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="1">
         <v>852</v>
       </c>
-      <c r="F2" s="1">
+      <c r="J2" s="1">
         <v>1593.7664794921875</v>
       </c>
     </row>
@@ -136,15 +172,27 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <v>457.80319213867188</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1584</v>
+      </c>
+      <c r="E3" s="1">
         <v>2041.80322265625</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
+        <v>810.4893798828125</v>
+      </c>
+      <c r="G3" s="1">
+        <v>588</v>
+      </c>
+      <c r="H3" s="1">
         <v>1398.4893798828125</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="1">
         <v>852</v>
       </c>
-      <c r="F3" s="1">
+      <c r="J3" s="1">
         <v>1495.3138427734375</v>
       </c>
     </row>
@@ -156,15 +204,27 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <v>509.64337158203125</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1584</v>
+      </c>
+      <c r="E4" s="1">
         <v>2093.643310546875</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
+        <v>970.97662353515625</v>
+      </c>
+      <c r="G4" s="1">
+        <v>588</v>
+      </c>
+      <c r="H4" s="1">
         <v>1558.9765625</v>
       </c>
-      <c r="E4" s="1">
+      <c r="I4" s="1">
         <v>852</v>
       </c>
-      <c r="F4" s="1">
+      <c r="J4" s="1">
         <v>1386.666748046875</v>
       </c>
     </row>
@@ -176,15 +236,27 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
+        <v>600.16644287109375</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1584</v>
+      </c>
+      <c r="E5" s="1">
         <v>2184.16650390625</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
+        <v>1246.7025146484375</v>
+      </c>
+      <c r="G5" s="1">
+        <v>588</v>
+      </c>
+      <c r="H5" s="1">
         <v>1834.7025146484375</v>
       </c>
-      <c r="E5" s="1">
+      <c r="I5" s="1">
         <v>852</v>
       </c>
-      <c r="F5" s="1">
+      <c r="J5" s="1">
         <v>1201.4639892578125</v>
       </c>
     </row>
@@ -196,15 +268,27 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
+        <v>970.81707763671875</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1584</v>
+      </c>
+      <c r="E6" s="1">
         <v>2554.81689453125</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
+        <v>2179.317626953125</v>
+      </c>
+      <c r="G6" s="1">
+        <v>588</v>
+      </c>
+      <c r="H6" s="1">
         <v>2767.317626953125</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="1">
         <v>852</v>
       </c>
-      <c r="F6" s="1">
+      <c r="J6" s="1">
         <v>639.499267578125</v>
       </c>
     </row>
@@ -216,15 +300,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
+        <v>1037.4964599609375</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3948</v>
+      </c>
+      <c r="E7" s="1">
         <v>4985.49609375</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
+        <v>2470.68701171875</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1464</v>
+      </c>
+      <c r="H7" s="1">
         <v>3934.68701171875</v>
       </c>
-      <c r="E7" s="1">
+      <c r="I7" s="1">
         <v>1704</v>
       </c>
-      <c r="F7" s="1">
+      <c r="J7" s="1">
         <v>2754.80908203125</v>
       </c>
     </row>
@@ -236,15 +332,27 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
+        <v>1171.10205078125</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3948</v>
+      </c>
+      <c r="E8" s="1">
         <v>5119.10205078125</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
+        <v>2799.93701171875</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1464</v>
+      </c>
+      <c r="H8" s="1">
         <v>4263.93701171875</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="1">
         <v>1704</v>
       </c>
-      <c r="F8" s="1">
+      <c r="J8" s="1">
         <v>2559.1650390625</v>
       </c>
     </row>
@@ -256,15 +364,27 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
+        <v>1285.0806884765625</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3948</v>
+      </c>
+      <c r="E9" s="1">
         <v>5233.08056640625</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
+        <v>3076.21533203125</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1464</v>
+      </c>
+      <c r="H9" s="1">
         <v>4540.21533203125</v>
       </c>
-      <c r="E9" s="1">
+      <c r="I9" s="1">
         <v>1704</v>
       </c>
-      <c r="F9" s="1">
+      <c r="J9" s="1">
         <v>2396.865234375</v>
       </c>
     </row>
@@ -276,15 +396,27 @@
         <v>4</v>
       </c>
       <c r="C10" s="1">
+        <v>1460.103759765625</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3948</v>
+      </c>
+      <c r="E10" s="1">
         <v>5408.103515625</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
+        <v>3487.163818359375</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1464</v>
+      </c>
+      <c r="H10" s="1">
         <v>4951.1640625</v>
       </c>
-      <c r="E10" s="1">
+      <c r="I10" s="1">
         <v>1704</v>
       </c>
-      <c r="F10" s="1">
+      <c r="J10" s="1">
         <v>2160.939453125</v>
       </c>
     </row>
@@ -296,15 +428,27 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
+        <v>2089.96630859375</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3948</v>
+      </c>
+      <c r="E11" s="1">
         <v>6037.96630859375</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
+        <v>4724.49169921875</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1464</v>
+      </c>
+      <c r="H11" s="1">
         <v>6188.49169921875</v>
       </c>
-      <c r="E11" s="1">
+      <c r="I11" s="1">
         <v>1704</v>
       </c>
-      <c r="F11" s="1">
+      <c r="J11" s="1">
         <v>1553.474609375</v>
       </c>
     </row>

--- a/Report_2_Table3_Estimated_Total_Average_Savings_by_Risk.xlsx
+++ b/Report_2_Table3_Estimated_Total_Average_Savings_by_Risk.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="21" uniqueCount="13">
   <si>
     <t>coveragetier</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>HSA</t>
+  </si>
+  <si>
+    <t>after_HSA</t>
   </si>
   <si>
     <t>total_savings</t>
@@ -94,7 +97,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -131,6 +134,9 @@
       <c r="J1" t="s">
         <v>11</v>
       </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -140,28 +146,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>413.48727416992188</v>
+        <v>410</v>
       </c>
       <c r="D2" s="1">
         <v>1584</v>
       </c>
       <c r="E2" s="1">
-        <v>1997.4873046875</v>
+        <v>1994</v>
       </c>
       <c r="F2" s="1">
-        <v>667.7208251953125</v>
+        <v>670</v>
       </c>
       <c r="G2" s="1">
         <v>588</v>
       </c>
       <c r="H2" s="1">
-        <v>1255.7208251953125</v>
+        <v>1258</v>
       </c>
       <c r="I2" s="1">
         <v>852</v>
       </c>
       <c r="J2" s="1">
-        <v>1593.7664794921875</v>
+        <v>406</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1588</v>
       </c>
     </row>
     <row r="3">
@@ -172,28 +181,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>457.80319213867188</v>
+        <v>460</v>
       </c>
       <c r="D3" s="1">
         <v>1584</v>
       </c>
       <c r="E3" s="1">
-        <v>2041.80322265625</v>
+        <v>2044</v>
       </c>
       <c r="F3" s="1">
-        <v>810.4893798828125</v>
+        <v>810</v>
       </c>
       <c r="G3" s="1">
         <v>588</v>
       </c>
       <c r="H3" s="1">
-        <v>1398.4893798828125</v>
+        <v>1398</v>
       </c>
       <c r="I3" s="1">
         <v>852</v>
       </c>
       <c r="J3" s="1">
-        <v>1495.3138427734375</v>
+        <v>546</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1498</v>
       </c>
     </row>
     <row r="4">
@@ -204,28 +216,31 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>509.64337158203125</v>
+        <v>510</v>
       </c>
       <c r="D4" s="1">
         <v>1584</v>
       </c>
       <c r="E4" s="1">
-        <v>2093.643310546875</v>
+        <v>2094</v>
       </c>
       <c r="F4" s="1">
-        <v>970.97662353515625</v>
+        <v>970</v>
       </c>
       <c r="G4" s="1">
         <v>588</v>
       </c>
       <c r="H4" s="1">
-        <v>1558.9765625</v>
+        <v>1558</v>
       </c>
       <c r="I4" s="1">
         <v>852</v>
       </c>
       <c r="J4" s="1">
-        <v>1386.666748046875</v>
+        <v>706</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1388</v>
       </c>
     </row>
     <row r="5">
@@ -236,28 +251,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>600.16644287109375</v>
+        <v>600</v>
       </c>
       <c r="D5" s="1">
         <v>1584</v>
       </c>
       <c r="E5" s="1">
-        <v>2184.16650390625</v>
+        <v>2184</v>
       </c>
       <c r="F5" s="1">
-        <v>1246.7025146484375</v>
+        <v>1250</v>
       </c>
       <c r="G5" s="1">
         <v>588</v>
       </c>
       <c r="H5" s="1">
-        <v>1834.7025146484375</v>
+        <v>1838</v>
       </c>
       <c r="I5" s="1">
         <v>852</v>
       </c>
       <c r="J5" s="1">
-        <v>1201.4639892578125</v>
+        <v>986</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1198</v>
       </c>
     </row>
     <row r="6">
@@ -268,28 +286,31 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>970.81707763671875</v>
+        <v>970</v>
       </c>
       <c r="D6" s="1">
         <v>1584</v>
       </c>
       <c r="E6" s="1">
-        <v>2554.81689453125</v>
+        <v>2554</v>
       </c>
       <c r="F6" s="1">
-        <v>2179.317626953125</v>
+        <v>2180</v>
       </c>
       <c r="G6" s="1">
         <v>588</v>
       </c>
       <c r="H6" s="1">
-        <v>2767.317626953125</v>
+        <v>2768</v>
       </c>
       <c r="I6" s="1">
         <v>852</v>
       </c>
       <c r="J6" s="1">
-        <v>639.499267578125</v>
+        <v>1916</v>
+      </c>
+      <c r="K6" s="1">
+        <v>638</v>
       </c>
     </row>
     <row r="7">
@@ -300,28 +321,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1037.4964599609375</v>
+        <v>1040</v>
       </c>
       <c r="D7" s="1">
         <v>3948</v>
       </c>
       <c r="E7" s="1">
-        <v>4985.49609375</v>
+        <v>4988</v>
       </c>
       <c r="F7" s="1">
-        <v>2470.68701171875</v>
+        <v>2470</v>
       </c>
       <c r="G7" s="1">
         <v>1464</v>
       </c>
       <c r="H7" s="1">
-        <v>3934.68701171875</v>
+        <v>3934</v>
       </c>
       <c r="I7" s="1">
         <v>1704</v>
       </c>
       <c r="J7" s="1">
-        <v>2754.80908203125</v>
+        <v>2230</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2758</v>
       </c>
     </row>
     <row r="8">
@@ -332,28 +356,31 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>1171.10205078125</v>
+        <v>1170</v>
       </c>
       <c r="D8" s="1">
         <v>3948</v>
       </c>
       <c r="E8" s="1">
-        <v>5119.10205078125</v>
+        <v>5118</v>
       </c>
       <c r="F8" s="1">
-        <v>2799.93701171875</v>
+        <v>2800</v>
       </c>
       <c r="G8" s="1">
         <v>1464</v>
       </c>
       <c r="H8" s="1">
-        <v>4263.93701171875</v>
+        <v>4264</v>
       </c>
       <c r="I8" s="1">
         <v>1704</v>
       </c>
       <c r="J8" s="1">
-        <v>2559.1650390625</v>
+        <v>2560</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2558</v>
       </c>
     </row>
     <row r="9">
@@ -364,28 +391,31 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>1285.0806884765625</v>
+        <v>1290</v>
       </c>
       <c r="D9" s="1">
         <v>3948</v>
       </c>
       <c r="E9" s="1">
-        <v>5233.08056640625</v>
+        <v>5238</v>
       </c>
       <c r="F9" s="1">
-        <v>3076.21533203125</v>
+        <v>3080</v>
       </c>
       <c r="G9" s="1">
         <v>1464</v>
       </c>
       <c r="H9" s="1">
-        <v>4540.21533203125</v>
+        <v>4544</v>
       </c>
       <c r="I9" s="1">
         <v>1704</v>
       </c>
       <c r="J9" s="1">
-        <v>2396.865234375</v>
+        <v>2840</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2398</v>
       </c>
     </row>
     <row r="10">
@@ -396,28 +426,31 @@
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>1460.103759765625</v>
+        <v>1460</v>
       </c>
       <c r="D10" s="1">
         <v>3948</v>
       </c>
       <c r="E10" s="1">
-        <v>5408.103515625</v>
+        <v>5408</v>
       </c>
       <c r="F10" s="1">
-        <v>3487.163818359375</v>
+        <v>3490</v>
       </c>
       <c r="G10" s="1">
         <v>1464</v>
       </c>
       <c r="H10" s="1">
-        <v>4951.1640625</v>
+        <v>4954</v>
       </c>
       <c r="I10" s="1">
         <v>1704</v>
       </c>
       <c r="J10" s="1">
-        <v>2160.939453125</v>
+        <v>3250</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2158</v>
       </c>
     </row>
     <row r="11">
@@ -428,28 +461,31 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>2089.96630859375</v>
+        <v>2090</v>
       </c>
       <c r="D11" s="1">
         <v>3948</v>
       </c>
       <c r="E11" s="1">
-        <v>6037.96630859375</v>
+        <v>6038</v>
       </c>
       <c r="F11" s="1">
-        <v>4724.49169921875</v>
+        <v>4720</v>
       </c>
       <c r="G11" s="1">
         <v>1464</v>
       </c>
       <c r="H11" s="1">
-        <v>6188.49169921875</v>
+        <v>6184</v>
       </c>
       <c r="I11" s="1">
         <v>1704</v>
       </c>
       <c r="J11" s="1">
-        <v>1553.474609375</v>
+        <v>4480</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1558</v>
       </c>
     </row>
   </sheetData>
